--- a/test.xlsx
+++ b/test.xlsx
@@ -633,11 +633,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
+          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
         </is>
       </c>
       <c r="AE3" t="n">
-        <v>114</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="4">

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,34 +1,155 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_job\Documents\Git\Test_site\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F53E17-0155-497D-96F0-1D59F3F22C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3408" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3408" yWindow="1680" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Доходы" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Расходы" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Доходы" sheetId="1" r:id="rId1"/>
+    <sheet name="Расходы" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t>Щипцы для зачистки электропроводов GROSS 17718</t>
+  </si>
+  <si>
+    <t>Январь</t>
+  </si>
+  <si>
+    <t>Категория</t>
+  </si>
+  <si>
+    <t>Подкатегория</t>
+  </si>
+  <si>
+    <t>1 Января</t>
+  </si>
+  <si>
+    <t>2 Января</t>
+  </si>
+  <si>
+    <t>3 Января</t>
+  </si>
+  <si>
+    <t>4 Января</t>
+  </si>
+  <si>
+    <t>5 Января</t>
+  </si>
+  <si>
+    <t>6 Января</t>
+  </si>
+  <si>
+    <t>7 Января</t>
+  </si>
+  <si>
+    <t>8 Января</t>
+  </si>
+  <si>
+    <t>9 Января</t>
+  </si>
+  <si>
+    <t>10 Января</t>
+  </si>
+  <si>
+    <t>11 Января</t>
+  </si>
+  <si>
+    <t>12 Января</t>
+  </si>
+  <si>
+    <t>13 Января</t>
+  </si>
+  <si>
+    <t>14 Января</t>
+  </si>
+  <si>
+    <t>15 Января</t>
+  </si>
+  <si>
+    <t>16 Января</t>
+  </si>
+  <si>
+    <t>17 Января</t>
+  </si>
+  <si>
+    <t>18 Января</t>
+  </si>
+  <si>
+    <t>19 Января</t>
+  </si>
+  <si>
+    <t>20 Января</t>
+  </si>
+  <si>
+    <t>21 Января</t>
+  </si>
+  <si>
+    <t>22 Января</t>
+  </si>
+  <si>
+    <t>23 Января</t>
+  </si>
+  <si>
+    <t>24 Января</t>
+  </si>
+  <si>
+    <t>25 Января</t>
+  </si>
+  <si>
+    <t>26 Января</t>
+  </si>
+  <si>
+    <t>27 Января</t>
+  </si>
+  <si>
+    <t>28 Января</t>
+  </si>
+  <si>
+    <t>29 Января</t>
+  </si>
+  <si>
+    <t>30 Января</t>
+  </si>
+  <si>
+    <t>31 Января</t>
+  </si>
+  <si>
+    <t>Продукты</t>
+  </si>
+  <si>
+    <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +168,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,24 +470,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -434,219 +490,141 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="B3:E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="12.109375" customWidth="1" min="1" max="1"/>
-    <col width="15.88671875" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Январь</t>
-        </is>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Категория</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Подкатегория</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1 Января</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2 Января</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3 Января</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4 Января</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5 Января</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6 Января</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7 Января</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>8 Января</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>9 Января</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>10 Января</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>11 Января</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>12 Января</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>13 Января</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>14 Января</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>15 Января</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>16 Января</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>17 Января</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>18 Января</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>19 Января</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>20 Января</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>21 Января</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>22 Января</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>23 Января</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>24 Января</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>25 Января</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>26 Января</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>27 Января</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>28 Января</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>29 Января</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>30 Января</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>31 Января</t>
-        </is>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Продукты</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
-        </is>
-      </c>
-      <c r="AE3" t="n">
-        <v>1799</v>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE3">
+        <v>114</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
-        </is>
-      </c>
-      <c r="AE4" t="n">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>1799</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,155 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex_job\Documents\Git\Test_site\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F53E17-0155-497D-96F0-1D59F3F22C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3408" yWindow="1680" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3408" yWindow="1680" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Доходы" sheetId="1" r:id="rId1"/>
-    <sheet name="Расходы" sheetId="2" r:id="rId2"/>
+    <sheet name="Доходы" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Расходы" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Щипцы для зачистки электропроводов GROSS 17718</t>
-  </si>
-  <si>
-    <t>Январь</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Подкатегория</t>
-  </si>
-  <si>
-    <t>1 Января</t>
-  </si>
-  <si>
-    <t>2 Января</t>
-  </si>
-  <si>
-    <t>3 Января</t>
-  </si>
-  <si>
-    <t>4 Января</t>
-  </si>
-  <si>
-    <t>5 Января</t>
-  </si>
-  <si>
-    <t>6 Января</t>
-  </si>
-  <si>
-    <t>7 Января</t>
-  </si>
-  <si>
-    <t>8 Января</t>
-  </si>
-  <si>
-    <t>9 Января</t>
-  </si>
-  <si>
-    <t>10 Января</t>
-  </si>
-  <si>
-    <t>11 Января</t>
-  </si>
-  <si>
-    <t>12 Января</t>
-  </si>
-  <si>
-    <t>13 Января</t>
-  </si>
-  <si>
-    <t>14 Января</t>
-  </si>
-  <si>
-    <t>15 Января</t>
-  </si>
-  <si>
-    <t>16 Января</t>
-  </si>
-  <si>
-    <t>17 Января</t>
-  </si>
-  <si>
-    <t>18 Января</t>
-  </si>
-  <si>
-    <t>19 Января</t>
-  </si>
-  <si>
-    <t>20 Января</t>
-  </si>
-  <si>
-    <t>21 Января</t>
-  </si>
-  <si>
-    <t>22 Января</t>
-  </si>
-  <si>
-    <t>23 Января</t>
-  </si>
-  <si>
-    <t>24 Января</t>
-  </si>
-  <si>
-    <t>25 Января</t>
-  </si>
-  <si>
-    <t>26 Января</t>
-  </si>
-  <si>
-    <t>27 Января</t>
-  </si>
-  <si>
-    <t>28 Января</t>
-  </si>
-  <si>
-    <t>29 Января</t>
-  </si>
-  <si>
-    <t>30 Января</t>
-  </si>
-  <si>
-    <t>31 Января</t>
-  </si>
-  <si>
-    <t>Продукты</t>
-  </si>
-  <si>
-    <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -168,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,18 +408,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -490,141 +434,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE5:AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col width="12.109375" customWidth="1" min="1" max="1"/>
+    <col width="15.88671875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Январь</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Подкатегория</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1 Января</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2 Января</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3 Января</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4 Января</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5 Января</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6 Января</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7 Января</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>8 Января</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>9 Января</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>10 Января</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>11 Января</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>12 Января</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>13 Января</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>14 Января</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>15 Января</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>16 Января</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>17 Января</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>18 Января</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>19 Января</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>20 Января</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>21 Января</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>22 Января</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>23 Января</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>24 Января</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>25 Января</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>26 Января</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>27 Января</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>28 Января</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>29 Января</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>30 Января</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>31 Января</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
+        </is>
+      </c>
+      <c r="AE3" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4">
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Щипцы для зачистки электропроводов GROSS 17718</t>
+        </is>
+      </c>
+      <c r="AE4" t="n">
         <v>1799</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -441,8 +441,8 @@
   </sheetPr>
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE5:AE6"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE3:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -439,10 +439,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE3:AE4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="84" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -471,157 +471,157 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 Января</t>
+          <t>1 Янв.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2 Января</t>
+          <t>2 Янв.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3 Января</t>
+          <t>3 Янв.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4 Января</t>
+          <t>4 Янв.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5 Января</t>
+          <t>5 Янв.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6 Января</t>
+          <t>6 Янв.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>7 Января</t>
+          <t>7 Янв.</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>8 Января</t>
+          <t>8 Янв.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>9 Января</t>
+          <t>9 Янв.</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10 Января</t>
+          <t>10 Янв.</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11 Января</t>
+          <t>11 Янв.</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12 Января</t>
+          <t>12 Янв.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>13 Января</t>
+          <t>13 Янв.</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>14 Января</t>
+          <t>14 Янв.</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15 Января</t>
+          <t>15 Янв.</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16 Января</t>
+          <t>16 Янв.</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>17 Января</t>
+          <t>17 Янв.</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>18 Января</t>
+          <t>18 Янв.</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>19 Января</t>
+          <t>19 Янв.</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>20 Января</t>
+          <t>20 Янв.</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>21 Января</t>
+          <t>21 Янв.</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>22 Января</t>
+          <t>22 Янв.</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>23 Января</t>
+          <t>23 Янв.</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>24 Января</t>
+          <t>24 Янв.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>25 Января</t>
+          <t>25 Янв.</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>26 Января</t>
+          <t>26 Янв.</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>27 Января</t>
+          <t>27 Янв.</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>28 Января</t>
+          <t>28 Янв.</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>29 Января</t>
+          <t>29 Янв.</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>30 Января</t>
+          <t>30 Янв.</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>31 Января</t>
+          <t>31 Янв.</t>
         </is>
       </c>
     </row>
@@ -631,23 +631,567 @@
           <t>Продукты</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Февраль</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Подкатегория</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1 Фев.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2 Фев.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3 Фев.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4 Фев.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5 Фев.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>6 Фев.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>7 Фев.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>8 Фев.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>9 Фев.</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10 Фев.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>11 Фев.</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>12 Фев.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>13 Фев.</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>14 Фев.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>15 Фев.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>16 Фев.</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>17 Фев.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>18 Фев.</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>19 Фев.</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>20 Фев.</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>21 Фев.</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>22 Фев.</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>23 Фев.</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>24 Фев.</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>25 Фев.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>26 Фев.</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>27 Фев.</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>28 Фев.</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>29 Фев.</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>30 Фев.</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>31 Фев.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Нулевая N шина на двух угловых синих изоляторах REXANT 6х9 мм 10 групп 11-2327</t>
         </is>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE7" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Щипцы для зачистки электропроводов GROSS 17718</t>
         </is>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE8" t="n">
         <v>1799</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Март</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Подкатегория</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1 Мар.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2 Мар.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3 Мар.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4 Мар.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5 Мар.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>6 Мар.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>7 Мар.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8 Мар.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>9 Мар.</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>10 Мар.</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>11 Мар.</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>12 Мар.</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>13 Мар.</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>14 Мар.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>15 Мар.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>16 Мар.</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>17 Мар.</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>18 Мар.</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>19 Мар.</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>20 Мар.</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>21 Мар.</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>22 Мар.</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>23 Мар.</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>24 Мар.</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>25 Мар.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>26 Мар.</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>27 Мар.</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>28 Мар.</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>29 Мар.</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>30 Мар.</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>31 Мар.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Апрель</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Подкатегория</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1 Апр.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2 Апр.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3 Апр.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4 Апр.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5 Апр.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6 Апр.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>7 Апр.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>8 Апр.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>9 Апр.</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>10 Апр.</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>11 Апр.</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>12 Апр.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>13 Апр.</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>14 Апр.</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>15 Апр.</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>16 Апр.</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>17 Апр.</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>18 Апр.</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>19 Апр.</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>20 Апр.</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>21 Апр.</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>22 Апр.</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>23 Апр.</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>24 Апр.</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>25 Апр.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>26 Апр.</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>27 Апр.</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>28 Апр.</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>29 Апр.</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>30 Апр.</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>31 Апр.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Продукты</t>
+        </is>
       </c>
     </row>
   </sheetData>
